--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.05716823592701</v>
+        <v>25.81602566666667</v>
       </c>
       <c r="H2">
-        <v>5.05716823592701</v>
+        <v>77.44807700000001</v>
       </c>
       <c r="I2">
-        <v>0.4546555263554203</v>
+        <v>0.7742517153725241</v>
       </c>
       <c r="J2">
-        <v>0.4546555263554203</v>
+        <v>0.7742517153725241</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.4264265091718</v>
+        <v>88.37814633333333</v>
       </c>
       <c r="N2">
-        <v>48.4264265091718</v>
+        <v>265.134439</v>
       </c>
       <c r="O2">
-        <v>0.5838918890007061</v>
+        <v>0.7138016014383547</v>
       </c>
       <c r="P2">
-        <v>0.5838918890007061</v>
+        <v>0.7138016014383547</v>
       </c>
       <c r="Q2">
-        <v>244.9005859216373</v>
+        <v>2281.572494113756</v>
       </c>
       <c r="R2">
-        <v>244.9005859216373</v>
+        <v>20534.1524470238</v>
       </c>
       <c r="S2">
-        <v>0.2654696741282767</v>
+        <v>0.5526621143493009</v>
       </c>
       <c r="T2">
-        <v>0.2654696741282767</v>
+        <v>0.5526621143493009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.05716823592701</v>
+        <v>25.81602566666667</v>
       </c>
       <c r="H3">
-        <v>5.05716823592701</v>
+        <v>77.44807700000001</v>
       </c>
       <c r="I3">
-        <v>0.4546555263554203</v>
+        <v>0.7742517153725241</v>
       </c>
       <c r="J3">
-        <v>0.4546555263554203</v>
+        <v>0.7742517153725241</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.70222155919539</v>
+        <v>8.866675333333333</v>
       </c>
       <c r="N3">
-        <v>8.70222155919539</v>
+        <v>26.600026</v>
       </c>
       <c r="O3">
-        <v>0.104925284622001</v>
+        <v>0.07161325864989523</v>
       </c>
       <c r="P3">
-        <v>0.104925284622001</v>
+        <v>0.07161325864989525</v>
       </c>
       <c r="Q3">
-        <v>44.00859845116215</v>
+        <v>228.9023179833336</v>
       </c>
       <c r="R3">
-        <v>44.00859845116215</v>
+        <v>2060.120861850002</v>
       </c>
       <c r="S3">
-        <v>0.04770486050780817</v>
+        <v>0.05544668835309764</v>
       </c>
       <c r="T3">
-        <v>0.04770486050780817</v>
+        <v>0.05544668835309765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.05716823592701</v>
+        <v>25.81602566666667</v>
       </c>
       <c r="H4">
-        <v>5.05716823592701</v>
+        <v>77.44807700000001</v>
       </c>
       <c r="I4">
-        <v>0.4546555263554203</v>
+        <v>0.7742517153725241</v>
       </c>
       <c r="J4">
-        <v>0.4546555263554203</v>
+        <v>0.7742517153725241</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.808668618889</v>
+        <v>26.56849866666667</v>
       </c>
       <c r="N4">
-        <v>25.808668618889</v>
+        <v>79.705496</v>
       </c>
       <c r="O4">
-        <v>0.3111828263772929</v>
+        <v>0.2145851399117501</v>
       </c>
       <c r="P4">
-        <v>0.3111828263772929</v>
+        <v>0.2145851399117501</v>
       </c>
       <c r="Q4">
-        <v>130.5187791510117</v>
+        <v>685.8930435034659</v>
       </c>
       <c r="R4">
-        <v>130.5187791510117</v>
+        <v>6173.037391531193</v>
       </c>
       <c r="S4">
-        <v>0.1414809917193355</v>
+        <v>0.1661429126701256</v>
       </c>
       <c r="T4">
-        <v>0.1414809917193355</v>
+        <v>0.1661429126701256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.48891411846386</v>
+        <v>2.718527666666667</v>
       </c>
       <c r="H5">
-        <v>2.48891411846386</v>
+        <v>8.155583</v>
       </c>
       <c r="I5">
-        <v>0.2237613039140261</v>
+        <v>0.08153170965901445</v>
       </c>
       <c r="J5">
-        <v>0.2237613039140261</v>
+        <v>0.08153170965901445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.4264265091718</v>
+        <v>88.37814633333333</v>
       </c>
       <c r="N5">
-        <v>48.4264265091718</v>
+        <v>265.134439</v>
       </c>
       <c r="O5">
-        <v>0.5838918890007061</v>
+        <v>0.7138016014383547</v>
       </c>
       <c r="P5">
-        <v>0.5838918890007061</v>
+        <v>0.7138016014383547</v>
       </c>
       <c r="Q5">
-        <v>120.5292166454302</v>
+        <v>240.2584359358819</v>
       </c>
       <c r="R5">
-        <v>120.5292166454302</v>
+        <v>2162.325923422937</v>
       </c>
       <c r="S5">
-        <v>0.1306524104276218</v>
+        <v>0.05819746492261148</v>
       </c>
       <c r="T5">
-        <v>0.1306524104276218</v>
+        <v>0.05819746492261148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.48891411846386</v>
+        <v>2.718527666666667</v>
       </c>
       <c r="H6">
-        <v>2.48891411846386</v>
+        <v>8.155583</v>
       </c>
       <c r="I6">
-        <v>0.2237613039140261</v>
+        <v>0.08153170965901445</v>
       </c>
       <c r="J6">
-        <v>0.2237613039140261</v>
+        <v>0.08153170965901445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.70222155919539</v>
+        <v>8.866675333333333</v>
       </c>
       <c r="N6">
-        <v>8.70222155919539</v>
+        <v>26.600026</v>
       </c>
       <c r="O6">
-        <v>0.104925284622001</v>
+        <v>0.07161325864989523</v>
       </c>
       <c r="P6">
-        <v>0.104925284622001</v>
+        <v>0.07161325864989525</v>
       </c>
       <c r="Q6">
-        <v>21.65908210068199</v>
+        <v>24.10430220501755</v>
       </c>
       <c r="R6">
-        <v>21.65908210068199</v>
+        <v>216.938719845158</v>
       </c>
       <c r="S6">
-        <v>0.02347821850056927</v>
+        <v>0.005838751411979163</v>
       </c>
       <c r="T6">
-        <v>0.02347821850056927</v>
+        <v>0.005838751411979164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.48891411846386</v>
+        <v>2.718527666666667</v>
       </c>
       <c r="H7">
-        <v>2.48891411846386</v>
+        <v>8.155583</v>
       </c>
       <c r="I7">
-        <v>0.2237613039140261</v>
+        <v>0.08153170965901445</v>
       </c>
       <c r="J7">
-        <v>0.2237613039140261</v>
+        <v>0.08153170965901445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.808668618889</v>
+        <v>26.56849866666667</v>
       </c>
       <c r="N7">
-        <v>25.808668618889</v>
+        <v>79.705496</v>
       </c>
       <c r="O7">
-        <v>0.3111828263772929</v>
+        <v>0.2145851399117501</v>
       </c>
       <c r="P7">
-        <v>0.3111828263772929</v>
+        <v>0.2145851399117501</v>
       </c>
       <c r="Q7">
-        <v>64.235559704308</v>
+        <v>72.22719868712977</v>
       </c>
       <c r="R7">
-        <v>64.235559704308</v>
+        <v>650.0447881841679</v>
       </c>
       <c r="S7">
-        <v>0.06963067498583507</v>
+        <v>0.0174954933244238</v>
       </c>
       <c r="T7">
-        <v>0.06963067498583507</v>
+        <v>0.0174954933244238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.57699422287181</v>
+        <v>4.808641333333334</v>
       </c>
       <c r="H8">
-        <v>3.57699422287181</v>
+        <v>14.425924</v>
       </c>
       <c r="I8">
-        <v>0.3215831697305536</v>
+        <v>0.1442165749684613</v>
       </c>
       <c r="J8">
-        <v>0.3215831697305536</v>
+        <v>0.1442165749684613</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.4264265091718</v>
+        <v>88.37814633333333</v>
       </c>
       <c r="N8">
-        <v>48.4264265091718</v>
+        <v>265.134439</v>
       </c>
       <c r="O8">
-        <v>0.5838918890007061</v>
+        <v>0.7138016014383547</v>
       </c>
       <c r="P8">
-        <v>0.5838918890007061</v>
+        <v>0.7138016014383547</v>
       </c>
       <c r="Q8">
-        <v>173.2210478576338</v>
+        <v>424.9788074218485</v>
       </c>
       <c r="R8">
-        <v>173.2210478576338</v>
+        <v>3824.809266796636</v>
       </c>
       <c r="S8">
-        <v>0.1877698044448076</v>
+        <v>0.1029420221664422</v>
       </c>
       <c r="T8">
-        <v>0.1877698044448076</v>
+        <v>0.1029420221664422</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.57699422287181</v>
+        <v>4.808641333333334</v>
       </c>
       <c r="H9">
-        <v>3.57699422287181</v>
+        <v>14.425924</v>
       </c>
       <c r="I9">
-        <v>0.3215831697305536</v>
+        <v>0.1442165749684613</v>
       </c>
       <c r="J9">
-        <v>0.3215831697305536</v>
+        <v>0.1442165749684613</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.70222155919539</v>
+        <v>8.866675333333333</v>
       </c>
       <c r="N9">
-        <v>8.70222155919539</v>
+        <v>26.600026</v>
       </c>
       <c r="O9">
-        <v>0.104925284622001</v>
+        <v>0.07161325864989523</v>
       </c>
       <c r="P9">
-        <v>0.104925284622001</v>
+        <v>0.07161325864989525</v>
       </c>
       <c r="Q9">
-        <v>31.12779624339242</v>
+        <v>42.63666149711378</v>
       </c>
       <c r="R9">
-        <v>31.12779624339242</v>
+        <v>383.7299534740241</v>
       </c>
       <c r="S9">
-        <v>0.0337422056136236</v>
+        <v>0.01032781888481843</v>
       </c>
       <c r="T9">
-        <v>0.0337422056136236</v>
+        <v>0.01032781888481843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.57699422287181</v>
+        <v>4.808641333333334</v>
       </c>
       <c r="H10">
-        <v>3.57699422287181</v>
+        <v>14.425924</v>
       </c>
       <c r="I10">
-        <v>0.3215831697305536</v>
+        <v>0.1442165749684613</v>
       </c>
       <c r="J10">
-        <v>0.3215831697305536</v>
+        <v>0.1442165749684613</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.808668618889</v>
+        <v>26.56849866666667</v>
       </c>
       <c r="N10">
-        <v>25.808668618889</v>
+        <v>79.705496</v>
       </c>
       <c r="O10">
-        <v>0.3111828263772929</v>
+        <v>0.2145851399117501</v>
       </c>
       <c r="P10">
-        <v>0.3111828263772929</v>
+        <v>0.2145851399117501</v>
       </c>
       <c r="Q10">
-        <v>92.31745854977893</v>
+        <v>127.7583808531449</v>
       </c>
       <c r="R10">
-        <v>92.31745854977893</v>
+        <v>1149.825427678304</v>
       </c>
       <c r="S10">
-        <v>0.1000711596721224</v>
+        <v>0.03094673391720066</v>
       </c>
       <c r="T10">
-        <v>0.1000711596721224</v>
+        <v>0.03094673391720066</v>
       </c>
     </row>
   </sheetData>
